--- a/warehouseData.xlsx
+++ b/warehouseData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Sl No</t>
   </si>
@@ -44,151 +44,76 @@
     <t xml:space="preserve">DeliveryPoint</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXYZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPad Pro 10.5</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXXZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPad Pro 12.9 (2015)</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXWZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPad Pro 12.9 (2017)</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXVZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPad Pro 9.7</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXUZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPad Wi-Fi</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXTZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPad Wi-Fi + 3G</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXSZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXRZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 3G</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXQZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 3GS</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXPZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 4</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXOZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 4 CDMA</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXNZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 4s</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXMZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 5</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXLZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 5c</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXKZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 5s</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXJZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 6</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXIZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 6 Plus</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXHZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 6s</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXGZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 6s Plus</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXFZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 7</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXEZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 7 Plus</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXDZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 8</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXCZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone 8 Plus</t>
   </si>
   <si>
-    <t xml:space="preserve">ABCXBZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple iPhone SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCXAZ</t>
   </si>
   <si>
     <t xml:space="preserve">Apple iPhone X</t>
@@ -207,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -231,18 +156,38 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -293,28 +238,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -327,6 +284,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -338,7 +355,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -347,8 +364,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="12.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -393,27 +409,29 @@
       <c r="X1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>SOA</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>3</v>
+      <c r="G2" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>4</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -434,27 +452,29 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>LHF</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
         <v>1</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -475,27 +495,29 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>YXV</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
         <v>2</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -516,27 +538,29 @@
       <c r="X4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>TEQ</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>0</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -557,27 +581,29 @@
       <c r="X5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
+      <c r="B6" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>JQP</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>2</v>
+      <c r="G6" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>0</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -598,27 +624,29 @@
       <c r="X6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="n">
+      <c r="B7" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>SZF</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
         <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -639,26 +667,28 @@
       <c r="X7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
+      <c r="B8" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>GWK</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>8</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
         <v>3</v>
       </c>
       <c r="H8" s="4"/>
@@ -680,27 +710,29 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>3</v>
+      <c r="B9" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>HLP</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>1</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -721,27 +753,29 @@
       <c r="X9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="n">
+      <c r="B10" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>FJY</v>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>6</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>2</v>
+      <c r="G10" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>4</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -762,27 +796,29 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>2</v>
+      <c r="B11" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>BQG</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>7</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>3</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -803,27 +839,29 @@
       <c r="X11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>7</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>3</v>
+      <c r="B12" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>TPK</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>0</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -844,27 +882,29 @@
       <c r="X12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>9</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>2</v>
+      <c r="B13" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>UYA</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>1</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -885,27 +925,29 @@
       <c r="X13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>1</v>
+      <c r="B14" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>KUF</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>3</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>0</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -926,27 +968,29 @@
       <c r="X14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>1</v>
+      <c r="B15" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>QSR</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>8</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>3</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -967,27 +1011,29 @@
       <c r="X15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="n">
+      <c r="B16" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>SVN</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
         <v>2</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>3</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1008,27 +1054,29 @@
       <c r="X16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>1</v>
+      <c r="B17" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>BDZ</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>4</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1049,27 +1097,29 @@
       <c r="X17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>4</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>1</v>
+      <c r="B18" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>SAC</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>3</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>4</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1090,27 +1140,29 @@
       <c r="X18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
+      <c r="B19" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>HUN</v>
+      </c>
+      <c r="C19" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G19" s="1" t="n">
-        <v>1</v>
+      <c r="D19" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>7</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>4</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1131,27 +1183,29 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>0</v>
+      <c r="B20" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>SHE</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>3</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>4</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1172,27 +1226,29 @@
       <c r="X20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1" t="n">
+      <c r="B21" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>BTF</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>0</v>
+      <c r="E21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>3</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1213,27 +1269,29 @@
       <c r="X21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="n">
+      <c r="B22" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>MBD</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>6</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
         <v>2</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>10</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1253,27 +1311,29 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="n">
+      <c r="B23" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>KGS</v>
+      </c>
+      <c r="C23" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>9</v>
-      </c>
-      <c r="G23" s="1" t="n">
+      <c r="D23" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>7</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
         <v>0</v>
       </c>
       <c r="H23" s="4"/>
@@ -1294,28 +1354,30 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="n">
+      <c r="B24" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>LEN</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
+      <c r="E24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
         <v>9</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <v>0</v>
+      <c r="G24" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>3</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1335,27 +1397,29 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="n">
+      <c r="B25" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>ZNW</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>2</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
         <v>0</v>
       </c>
       <c r="H25" s="4"/>
@@ -1376,28 +1440,30 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <f aca="false">RANDBETWEEN(0,10)</f>
-        <v>6</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>0</v>
+      <c r="B26" s="5" t="str">
+        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
+        <v>KFI</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">RANDBETWEEN(1,10)</f>
+        <v>10</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <f aca="false">RANDBETWEEN(0,4)</f>
+        <v>3</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -2421,210 +2487,210 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>58</v>
+      <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="n">
+      <c r="A5" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="n">
+      <c r="A6" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="n">
+      <c r="A7" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="n">
+      <c r="A8" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="A9" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5" t="n">
+      <c r="A12" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="n">
+      <c r="A13" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5" t="n">
+      <c r="A18" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" s="5" t="n">
+      <c r="A19" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" s="5" t="n">
+      <c r="A23" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+      <c r="A26" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="8" t="n">
         <v>5</v>
       </c>
     </row>
